--- a/Library/Templates/CWR_Inventory_Template.xlsx
+++ b/Library/Templates/CWR_Inventory_Template.xlsx
@@ -4,15 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="724"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="22300" windowHeight="16360" tabRatio="724"/>
   </bookViews>
   <sheets>
-    <sheet name="CK_Identification" sheetId="10" r:id="rId1"/>
-    <sheet name="CK_Crossability" sheetId="11" r:id="rId2"/>
-    <sheet name="CK_Threats" sheetId="12" r:id="rId3"/>
+    <sheet name="IN_Identification" sheetId="10" r:id="rId1"/>
+    <sheet name="IN_Crossability" sheetId="11" r:id="rId2"/>
+    <sheet name="IN_Conservation" sheetId="15" r:id="rId3"/>
+    <sheet name="IN_Threats" sheetId="12" r:id="rId4"/>
+    <sheet name="IN_Population" sheetId="16" r:id="rId5"/>
+    <sheet name="IN_Safety_Duplicates" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="O_Unique_identifier">CK_Crossability!#REF!</definedName>
+    <definedName name="A_Unique_identifier">IN_Crossability!#REF!</definedName>
+    <definedName name="O_Unique_identifier" localSheetId="2">IN_Conservation!#REF!</definedName>
+    <definedName name="O_Unique_identifier" localSheetId="4">IN_Population!#REF!</definedName>
+    <definedName name="O_Unique_identifier" localSheetId="5">IN_Safety_Duplicates!#REF!</definedName>
+    <definedName name="O_Unique_identifier">IN_Crossability!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="542">
   <si>
     <t>Example: Plantae</t>
   </si>
@@ -65,25 +72,10 @@
     <t>If no concept has been applied to the crop complex, the Taxon Group to which the taxon belongs (see Maxted et al., 2006). The Taxon Group uses taxonomic classifications of the crop genus as a proxy for relative crossability. Taxon group TG1b (same species as crop), TG2 (same series or section as crop) and TG3 (same subgenus as crop) are given priority. Other CWR that are also given priority are species that have previously been successfully used in breeding. Multiple values are separated by a semicolon without space.</t>
   </si>
   <si>
-    <t>Checklist identification</t>
-  </si>
-  <si>
-    <t>This worksheet contains the checklist identification and root data.</t>
-  </si>
-  <si>
-    <t>Checklist identifier</t>
-  </si>
-  <si>
-    <t>CK_UNID</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
     <t>Dataset name, provide the dataset or collection name to which this entry belongs.</t>
-  </si>
-  <si>
-    <t>CK_CWRCODE</t>
   </si>
   <si>
     <t>ESP for Spain
@@ -100,12 +92,6 @@
 Example: the second edition that is compiled in 2014 will be coded 002/2014</t>
   </si>
   <si>
-    <t>CK_NUMB</t>
-  </si>
-  <si>
-    <t>CK_INSTCODE</t>
-  </si>
-  <si>
     <t>Recommended</t>
   </si>
   <si>
@@ -122,12 +108,6 @@
     <t>Dataset version or date.</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of checklist </t>
-  </si>
-  <si>
-    <t>CK_TYPE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kingdom </t>
   </si>
   <si>
@@ -255,9 +235,6 @@
   </si>
   <si>
     <t>SYNREF</t>
-  </si>
-  <si>
-    <t>Synonyms references used by checklist compiler, multiple values are separated by a semicolon without space.</t>
   </si>
   <si>
     <t>Common taxon names</t>
@@ -490,9 +467,6 @@
     <t>Provide any internet links (URL) holding any additional data either in the institute or from another source; ; multiple entries should be separated by a semicolon (;).</t>
   </si>
   <si>
-    <t>Field specific for uniquely identifying your cwr checklist. The value you provide must reference the CK_UNID column in the CK_Identification worksheet whose row corresponds to the checklist featuring this crossability record.</t>
-  </si>
-  <si>
     <t xml:space="preserve">List of species crosses </t>
   </si>
   <si>
@@ -545,9 +519,6 @@
   </si>
   <si>
     <t>This worksheet contains the species threats status data.</t>
-  </si>
-  <si>
-    <t>Field specific for uniquely identifying your cwr checklist. The value you provide must reference the CK_UNID column in the CK_Identification worksheet whose row corresponds to the checklist featuring this threat status record.</t>
   </si>
   <si>
     <t xml:space="preserve">Red List assessment level </t>
@@ -665,12 +636,6 @@
     <t>THREAT_PERIOD</t>
   </si>
   <si>
-    <t>Indicate the threat period of occurrence:
-1: Past
-2: Present
-3: Future</t>
-  </si>
-  <si>
     <t>Example: 2</t>
   </si>
   <si>
@@ -696,9 +661,6 @@
   </si>
   <si>
     <t>ASSESSMENT_REFERENCES</t>
-  </si>
-  <si>
-    <t>Any bibliographic references related to the publication of the checklist, the format should include the author, date, title, journal, volume and page number or the DOI number, multiple entries should be separated by a semicolon (;).</t>
   </si>
   <si>
     <t>NatureServe global ranking</t>
@@ -814,21 +776,6 @@
     <t>Indicate the percentage (%) of success rate for each cross.</t>
   </si>
   <si>
-    <t xml:space="preserve">National checklist code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">National checklist edition number </t>
-  </si>
-  <si>
-    <t>Field specific for uniquely identifying your checklist. The combination you provide must be unique for each row on the first column of the excel worksheet.</t>
-  </si>
-  <si>
-    <t>Country or region code identifying the checklist, or the code of the country preparing the checklist. For country codes use the three-letter ISO 3166-1 (see: http://unstats.un.org/unsd/methods/m49/m49alpha.htm); for region codes use the ISO 3166-2 standard (see http://en.wikipedia.org/wiki/Category:ISO_3166 in section 2).</t>
-  </si>
-  <si>
-    <t>FAO WIEWS code of the institute that is responsible at the national level for the production of the Checklist.  The codes consist of the 3 letter ISO 3166 country code of the country where the institute is located plus a number. The current set of institute codes is available from http://apps3.fao.org/wiews/wiews.jsp</t>
-  </si>
-  <si>
     <t>Taxon kingdom</t>
   </si>
   <si>
@@ -844,8 +791,223 @@
     <t>Taxon Family</t>
   </si>
   <si>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t>Inventory identification</t>
+  </si>
+  <si>
+    <t>This worksheet contains the Inventory identification and root data.</t>
+  </si>
+  <si>
+    <t>Inventory identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Inventory code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Inventory edition number </t>
+  </si>
+  <si>
+    <t>Field specific for uniquely identifying your Inventory. The combination you provide must be unique for each row on the first column of the excel worksheet.</t>
+  </si>
+  <si>
+    <t>Country or region code identifying the Inventory, or the code of the country preparing the Inventory. For country codes use the three-letter ISO 3166-1 (see: http://unstats.un.org/unsd/methods/m49/m49alpha.htm); for region codes use the ISO 3166-2 standard (see http://en.wikipedia.org/wiki/Category:ISO_3166 in section 2).</t>
+  </si>
+  <si>
+    <t>Code identifying the edition of the National Inventory made up of the edition number and the year of publication.</t>
+  </si>
+  <si>
+    <t>FAO WIEWS code of the institute that is responsible at the national level for the production of the Inventory.  The codes consist of the 3 letter ISO 3166 country code of the country where the institute is located plus a number. The current set of institute codes is available from http://apps3.fao.org/wiews/wiews.jsp</t>
+  </si>
+  <si>
+    <t>Synonyms references used by Inventory compiler, multiple values are separated by a semicolon without space.</t>
+  </si>
+  <si>
+    <t>IN_CWRCODE</t>
+  </si>
+  <si>
+    <t>IN_NUMB</t>
+  </si>
+  <si>
+    <t>IN_INSTCODE</t>
+  </si>
+  <si>
+    <t>List of criteria used for the NI prioritisation</t>
+  </si>
+  <si>
+    <t>Classes and subclasses for economic plant data (modified from Cook 1995 and from WEP).</t>
+  </si>
+  <si>
+    <t>5.1: Agroforestry.
+10: Food.
+10.2: Cereal.</t>
+  </si>
+  <si>
+    <t>Method for the NI prioritisation</t>
+  </si>
+  <si>
+    <t>Describe the method applied to the NI prioritization, based on the criteria used.</t>
+  </si>
+  <si>
+    <t>Reproductive system</t>
+  </si>
+  <si>
+    <t>1. Sexual
+2. Vegetative
+Separate multiple entries with a semicolon (;)</t>
+  </si>
+  <si>
+    <t>1
+2
+1;2</t>
+  </si>
+  <si>
+    <t>REPSYSTEM</t>
+  </si>
+  <si>
+    <t>Breeding system</t>
+  </si>
+  <si>
+    <t>1. Allogamous
+2. Autogamous
+Separate multiple entries with a semicolon (;)</t>
+  </si>
+  <si>
+    <t>BREDSYSTEM</t>
+  </si>
+  <si>
+    <t>Flower/plant sex structure</t>
+  </si>
+  <si>
+    <t>1. Andromonoecious(Plants have some male and hermaphrodite flowers)
+2. Gynodioecious (Plants have female and hermaphrodite flowers)
+3. Dioecious (Having either only male or only female flowers. No individual plant of the population produces both pollen and ovules)
+4. Hermaphrodite (All plants with hermaphrodite flowers)
+Separate multiple entries with a semicolon (;)</t>
+  </si>
+  <si>
+    <t>1
+3</t>
+  </si>
+  <si>
+    <t>SEXSTRUCT</t>
+  </si>
+  <si>
+    <t>Pollination</t>
+  </si>
+  <si>
+    <t>POLLINATION</t>
+  </si>
+  <si>
+    <t>1. Ants
+2. Bats
+3. Bees
+4. Beetles
+5. Birds
+6. Butterflies
+7. Other insect
+8. Moths
+9. Wind
+Separate multiple entries with a semicolon (;)</t>
+  </si>
+  <si>
+    <t>3
+6;7</t>
+  </si>
+  <si>
+    <t>Life form</t>
+  </si>
+  <si>
+    <t>1. Phanerophytes (phan.) 
+2. Nanophanerophytes (nanophan.) 
+3. Herbaceous phanerophytes (herb. phan.) 
+4. Chamaephytes (cham.) 
+5. Hemicryptophytes (hemicr.) 
+6. Geophytes (not abbreviated) 
+7. Therophytes (ther.) 
+8. Epiphytes (epi.) 
+9. Helophytes (hel.) 
+10. Hydrophytes (hydro.) 
+Separate multiple entries with a semicolon (;)</t>
+  </si>
+  <si>
+    <t>5
+2</t>
+  </si>
+  <si>
+    <t>LIFEFORM</t>
+  </si>
+  <si>
+    <t>Life span</t>
+  </si>
+  <si>
+    <t>1. Annual
+2. Perennial.
+3. Biennial</t>
+  </si>
+  <si>
+    <t>LIFESPAN</t>
+  </si>
+  <si>
+    <t>Seed dispersal</t>
+  </si>
+  <si>
+    <t>1. Anemochorous 
+2. Anthropochory 
+3. Endozoochory 
+4. Myrmecochory
+5. Zoochorous 
+Separate multiple entries with a semicolon (;)</t>
+  </si>
+  <si>
+    <t>1
+3;5</t>
+  </si>
+  <si>
+    <t>SEEDDISPERSAL</t>
+  </si>
+  <si>
+    <t>Conservation actions</t>
+  </si>
+  <si>
+    <t>This worksheet contains the conservation actions data.</t>
+  </si>
+  <si>
+    <t>Any bibliographic references related to the publication of the Inventory, the format should include the author, date, title, journal, volume and page number or the DOI number, multiple entries should be separated by a semicolon (;).</t>
+  </si>
+  <si>
+    <t>Conservation actions in place</t>
+  </si>
+  <si>
+    <t>0
+1</t>
+  </si>
+  <si>
+    <t>Conservation country or region</t>
+  </si>
+  <si>
+    <t>Legislation type</t>
+  </si>
+  <si>
+    <t>Provide the geographical administrative unit to which the conservation priority applies, this may be a country or a country subdivision. For country codes use the three-letter ISO 3166-1 Alpha-3 code; for region codes use the ISO 3166-2 codes (see: http://en.wikipedia.org/wiki/ISO_3166-1).</t>
+  </si>
+  <si>
+    <t>Country of assessment</t>
+  </si>
+  <si>
     <r>
-      <t>Code identifying the edition of the National</t>
+      <t>Provide the ISO code of the country of assessment if level is 3 (= national). Use the three-letter ISO code (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard ISO 3166-1</t>
     </r>
     <r>
       <rPr>
@@ -855,62 +1017,112 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> checklist made up of the edition number and the year of publication.</t>
+      <t>).</t>
     </r>
   </si>
   <si>
+    <t>ASSESSMENT_COUNTRY</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>This worksheet contains population data.</t>
+  </si>
+  <si>
+    <t>Field specific for uniquely identifying your cwr Inventory. The value you provide must reference the UNID column in the IN_Identification worksheet whose row corresponds to the Inventory featuring this crossability record.</t>
+  </si>
+  <si>
+    <t>Field specific for uniquely identifying your cwr Inventory. The value you provide must reference the UNID column in the IN_Identification worksheet whose row corresponds to the Inventory featuring this threat status record.</t>
+  </si>
+  <si>
+    <t>Field specific for uniquely identifying your cwr Inventory. The value you provide must reference the UNID column in the IN_Identification worksheet whose row corresponds to the Inventory featuring this population record.</t>
+  </si>
+  <si>
+    <t>Field specific for uniquely identifying your cwr Inventory. The value you provide must reference the UNID column in the IN_Identification worksheet whose row corresponds to the Inventory featuring this conservation actions record.</t>
+  </si>
+  <si>
+    <t>Population recording date</t>
+  </si>
+  <si>
+    <t>Biological status</t>
+  </si>
+  <si>
+    <t>SAMPSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological status of the threatened species.
+100. Wild
+  110.  Natural
+  120. Semi-natural
+  130. Natural/sown
+200. Weedy
+300. Traditional cultivar / Landrace
+</t>
+  </si>
+  <si>
+    <t>110
+200</t>
+  </si>
+  <si>
+    <t>POPULATION_RECDATE</t>
+  </si>
+  <si>
+    <t>19870312
+198703
+1987</t>
+  </si>
+  <si>
+    <t>Date on which the population was recorded in the current in situ Inventory, as YYYYMMDD. Missing data (MM or DD) should be omitted. Leading zeros are required and at least the year should be provided.</t>
+  </si>
+  <si>
+    <t>Population number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique progressive number which identifies the population in the Inventory, not to be duplicated (i.e. reassigned) for otherpopulations in the current Inventory. To be assigned by the institute which is responsible at the national level for the production of the National CWR in situ Inventory. </t>
+  </si>
+  <si>
+    <t>POPULATION_NUMBER</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Whether any monitoring of the population is foreseen across years.
+0. No
+1. Yes</t>
+  </si>
+  <si>
+    <t>POPULATION_MONITORED</t>
+  </si>
+  <si>
+    <t>Monitoring author or compiler</t>
+  </si>
+  <si>
+    <t>POPULATION_MONITOR</t>
+  </si>
+  <si>
+    <t>Monitoring interval in years</t>
+  </si>
+  <si>
+    <t>To be compiled if POPULATION_MONITORED is ‘Yes’. Indicate the monitoring interval in years.</t>
+  </si>
+  <si>
+    <t>POPULATION_MONITORING_INTERVAL</t>
+  </si>
+  <si>
+    <t>Population area</t>
+  </si>
+  <si>
     <r>
-      <t>1</t>
+      <t>Approximate area occupied by the population in square Km. [km</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Complete checklist</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">a list of all species found in the country, a list of names and authorities.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -923,7 +1135,568 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. </t>
+      <t>].</t>
+    </r>
+  </si>
+  <si>
+    <t>POPULATION_AREA</t>
+  </si>
+  <si>
+    <t>Number of individuals</t>
+  </si>
+  <si>
+    <t>Total number of individuals in the population.</t>
+  </si>
+  <si>
+    <t>Number of mature individuals</t>
+  </si>
+  <si>
+    <t>Total number of individuals known, estimated or inferred to be capable of reproduction.</t>
+  </si>
+  <si>
+    <t>Number of juvenile individuals</t>
+  </si>
+  <si>
+    <t>Total number of individuals known, estimated or inferred not yet capable of reproduction.</t>
+  </si>
+  <si>
+    <t>Taxon seedlings in population</t>
+  </si>
+  <si>
+    <t>Presence or absence of seedlings of the taxon in the population.
+0. Absent
+1. Rare
+2. Occasional
+3. Frequent
+4. Common
+5. Abundant</t>
+  </si>
+  <si>
+    <t>1
+4</t>
+  </si>
+  <si>
+    <t>Population density</t>
+  </si>
+  <si>
+    <t>Estimation of the number of individuals per unit area.</t>
+  </si>
+  <si>
+    <t>POPULATION_DENSITY</t>
+  </si>
+  <si>
+    <t>Foliage cover</t>
+  </si>
+  <si>
+    <t>Estimation of the proportion of ground occupied by the perpendicular projection on the ground of the aerial parts of the population, provide proportion [%] or ranking of foliage cover.</t>
+  </si>
+  <si>
+    <t>Foliage cover ranking scale</t>
+  </si>
+  <si>
+    <t>Name of the foliage ranking scale, if any, used to estimate the foliage cover.</t>
+  </si>
+  <si>
+    <t>Domin
+Brown-Blanquet</t>
+  </si>
+  <si>
+    <t>IUCN threat classification</t>
+  </si>
+  <si>
+    <t>Indicate the threat period of occurrence:
+1: Past
+2: Present
+3: Future
+Multiple values are allowed, separated with a semicolon without space.</t>
+  </si>
+  <si>
+    <t>Safety duplication ex-situ</t>
+  </si>
+  <si>
+    <t>State if a sample was collected for safety duplication in genebank.
+0. No
+1. Yes</t>
+  </si>
+  <si>
+    <t>DUPLSITE</t>
+  </si>
+  <si>
+    <t>SAFETY_DUPLICATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO WIEWS code of the institute where the accession is maintained. The codes consist of the 3-letter ISO 3166 country code of the country where the institute is located plus a number (e.g. COL001). The current set of institute codes is available from http://apps3.fao.org/wiews/wiews.jsp. </t>
+  </si>
+  <si>
+    <t>ACCENUMB</t>
+  </si>
+  <si>
+    <t>PI 113869</t>
+  </si>
+  <si>
+    <t>This is the unique identifier for accessions within a genebank, and is assigned when a sample is entered into the genebank collection.</t>
+  </si>
+  <si>
+    <t>Safety duplicate holder institute code</t>
+  </si>
+  <si>
+    <t>Safety duplicate holder institute name</t>
+  </si>
+  <si>
+    <t>Name of the institute responsible at the national level for the production of the National CWR National Inventory. This descriptor should be used only if DUPLSITE cannot be filled because the FAO WIEWS code for this institute is not available.</t>
+  </si>
+  <si>
+    <t>Safety duplicate holder institute address</t>
+  </si>
+  <si>
+    <t>Address of the institute responsible at the national level for the production of the National CWR National Inventory. This descriptor should be used only if DUPLSITE cannot be filled since the FAO WIEWS code for this institute is not available.</t>
+  </si>
+  <si>
+    <t>Safety duplicates</t>
+  </si>
+  <si>
+    <t>This worksheet contains safety duplicates accession data.</t>
+  </si>
+  <si>
+    <t>ACCEURL</t>
+  </si>
+  <si>
+    <t>Accession link</t>
+  </si>
+  <si>
+    <t>URL linking to additional data about the accession either in the holding genebank or from another source.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cgn.wageningen-ur.nl/pgr/collections/passdeta.asp?accenumb=CGN04848 </t>
+  </si>
+  <si>
+    <t>Multilateral system status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coded status of an accession with regards to the Multilateral System (MLS) of the International Treaty on Plant Genetic Resources for Food and Agriculture. 
+Provides the information, whether the accession is included in the MLS. 
+0  not part of the MLS 
+1  part of the MLS. </t>
+  </si>
+  <si>
+    <t>DUPLDESCR</t>
+  </si>
+  <si>
+    <t>DUPLADDR</t>
+  </si>
+  <si>
+    <t>MLSSTAT</t>
+  </si>
+  <si>
+    <t>Site administrative unit</t>
+  </si>
+  <si>
+    <t>Provide the geographical administrative unit related to the population site this may be a country or a country subdivision. For country codes use the three-letter ISO 3166-1 Alpha-3 code; for region codes use the ISO 3166-2 codes (see: http://en.wikipedia.org/wiki/ISO_3166-1).</t>
+  </si>
+  <si>
+    <t>SITE_ADMIN_UNIT</t>
+  </si>
+  <si>
+    <t>Site region</t>
+  </si>
+  <si>
+    <t>Provide the name of the site region if the administrative unit is not available.</t>
+  </si>
+  <si>
+    <t>Site primary administrative unit</t>
+  </si>
+  <si>
+    <t>Name of the primary administrative subdivision of the location's country.</t>
+  </si>
+  <si>
+    <t>Name of the secondary administrative subdivision of the location's primary administrative unit.</t>
+  </si>
+  <si>
+    <t>Site tertiary administrative unit</t>
+  </si>
+  <si>
+    <t>Site secondary administrative unit</t>
+  </si>
+  <si>
+    <t>Name of the lowest administrative subdivision of the location, or its local name.</t>
+  </si>
+  <si>
+    <t>Description or name of the locality.</t>
+  </si>
+  <si>
+    <t>Site locality</t>
+  </si>
+  <si>
+    <t>Site nearest named place</t>
+  </si>
+  <si>
+    <t>Name of nearest place to site. This also refers to places that may not have proper names (i.e. road junctions).</t>
+  </si>
+  <si>
+    <t>Distance from nearest named place</t>
+  </si>
+  <si>
+    <t>Distance from nearest named place to site in meters.</t>
+  </si>
+  <si>
+    <t>Direction from nearest named place</t>
+  </si>
+  <si>
+    <t>Direction of site from nearest named place in degrees relative to North.</t>
+  </si>
+  <si>
+    <t>Site monitoring</t>
+  </si>
+  <si>
+    <t>Site monitor or compiler</t>
+  </si>
+  <si>
+    <t>Name of person or entity in charge of the monitoring.</t>
+  </si>
+  <si>
+    <t>Site monitoring interval</t>
+  </si>
+  <si>
+    <t>SITE_MONITORED</t>
+  </si>
+  <si>
+    <t>SITE_MONITOR</t>
+  </si>
+  <si>
+    <t>SITE_MONITORING_INTERVAL</t>
+  </si>
+  <si>
+    <t>Indicate the monitoring interval in years</t>
+  </si>
+  <si>
+    <t>Site minimum elevation</t>
+  </si>
+  <si>
+    <t>Site maximum elevation</t>
+  </si>
+  <si>
+    <t>Provide the site minimum elevation in meters above sea level.
+If you have only the mean elevation, set it in both as minimum and maximum.</t>
+  </si>
+  <si>
+    <t>Provide the site maximum elevation in meters above sea level.
+If you have only the mean elevation, set it in both as minimum and maximum.</t>
+  </si>
+  <si>
+    <t>Site location latitude degrees (DMS)</t>
+  </si>
+  <si>
+    <t>Site location latitude minutes (DMS)</t>
+  </si>
+  <si>
+    <t>Provide the site latitude degrees part of the latitude degrees, minutes and seconds coordinate (not decimal degrees).
+Provide a number ranging from 0 to 90.</t>
+  </si>
+  <si>
+    <t>Provide the site latitude minutes part of the latitude degrees, minutes and seconds coordinate (not decimal minutes.
+Provide a number from 0 to 60.</t>
+  </si>
+  <si>
+    <t>Site location latitude seconds (DMS)</t>
+  </si>
+  <si>
+    <t>Provide the site latitude seconds part of the latitude degrees, minutes and seconds coordinate, a decimal number is also accepted.
+Provide a number from 0 to 60.</t>
+  </si>
+  <si>
+    <t>Site location latitude hemisphere (DMS)</t>
+  </si>
+  <si>
+    <t>Provide the latitude hemisphere (N/S).</t>
+  </si>
+  <si>
+    <t>Site location longitude degrees (DMS)</t>
+  </si>
+  <si>
+    <t>Provide the site longitude degrees part of the longitude degrees, minutes and seconds coordinate (not decimal degrees).
+Provide a number ranging from 0 to 180.</t>
+  </si>
+  <si>
+    <t>Site location longitude minutes (DMS)</t>
+  </si>
+  <si>
+    <t>Site location longitude seconds (DMS)</t>
+  </si>
+  <si>
+    <t>Site location longitude hemisphere (DMS)</t>
+  </si>
+  <si>
+    <t>Provide the site longitude minutes part of the longitude degrees, minutes and seconds coordinate (not decimal minutes.
+Provide a number from 0 to 60.</t>
+  </si>
+  <si>
+    <t>Provide the longitude hemisphere (E/W).</t>
+  </si>
+  <si>
+    <t>Provide the site longitude seconds part of the longitude degrees, minutes and seconds coordinate.
+Provide a number from 0 to 60.</t>
+  </si>
+  <si>
+    <t>N
+S</t>
+  </si>
+  <si>
+    <t>E
+W</t>
+  </si>
+  <si>
+    <t>Site datum</t>
+  </si>
+  <si>
+    <t>Provide the geodetic datum used to determine the coordinates of the site.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide the site shape geometry, the following formats and geometries are supported:
+Point:
+A point is provided in the following format:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>Point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">lat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stands for the decimal longitude and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the decimal latitude.
+Polygon:
+You may also provide the site polygon in the fllowing format:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>Polygon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>...lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t xml:space="preserve">lat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stands for the decimal longitude and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the decimal latitude. Coordinates are separated by a </t>
     </r>
     <r>
       <rPr>
@@ -933,7 +1706,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Annotated checklist</t>
+      <t>comma,</t>
     </r>
     <r>
       <rPr>
@@ -943,19 +1716,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> – a list of all species found in the country, with additional information to aid prioritization of the checklist.
-</t>
+      <t xml:space="preserve"> as for the point, and points are separated by a </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>semicolon</t>
     </r>
     <r>
       <rPr>
@@ -965,7 +1736,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. </t>
+      <t xml:space="preserve">.
+If you want to provide also rings or holes in the shape, you can provide additional sets of points separated by a </t>
     </r>
     <r>
       <rPr>
@@ -975,7 +1747,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Priority checklist</t>
+      <t>colon</t>
     </r>
     <r>
       <rPr>
@@ -985,15 +1757,831 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> – a partial list of species found in the country that has been reduced in number from the complete checklist through prioritization, a list of names and authorities.</t>
+      <t xml:space="preserve">, the first set of points represents the outer ring, the other set of points the holes.
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>Polygon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>lat</t>
+    </r>
+  </si>
+  <si>
+    <t>Site georeference method</t>
+  </si>
+  <si>
+    <t>Method used to obtain coordinates:
+10. GPS device
+20. Map
+30. Digital gazetteer
+40. Georeferencing tool
+99. Other</t>
+  </si>
+  <si>
+    <t>10
+20</t>
+  </si>
+  <si>
+    <t>Site maximum error distance</t>
+  </si>
+  <si>
+    <t>The upper limit of the distance (in meters) from the given latitude and longitude describing a circle within which the whole of the described locality must lie (Radius). This is relevant only if you provided a point in the SITE_GEOMETRY field which was not obtained with a GPS.</t>
+  </si>
+  <si>
+    <t>Site land use (FAO)</t>
+  </si>
+  <si>
+    <t>Site land use (EEC)</t>
+  </si>
+  <si>
+    <t>Information about the usage of the land, FAO standard. Multiples values are allowed separated by a semicolon.</t>
+  </si>
+  <si>
+    <t>Information about the usage of the land, EEC CORINE standard. Multiples values are allowed separated by a semicolon.</t>
+  </si>
+  <si>
+    <t>Site habitat type (EUNIS)</t>
+  </si>
+  <si>
+    <t>EUNIS Habitat types classification is a pan-European of criteria for habitat identification. The EUNIS classification is limited to level 3 in its hierarchy (level 4 for Marine habitat types), here is only presented the first level.  From the below source you have access to the other details of the classification. (Source:http://eunis.eea.europa.eu/habitats-code-browser.jsp?expand=A,B,C,D,E,F,G,H,I,J,X#level_X ) follows, EUNIS habitat classification 200711.
+A : Marine habitats
+B : Coastal habitats
+C : Inland surface waters
+D : Mires, bogs and fens
+E : Grasslands and lands dominated by forbs, mosses or lichens
+F : Heathland, scrub and tundra
+G : Woodland, forest and other wooded land
+H : Inland unvegetated or sparsely vegetated habitats
+I : Regularly or recently cultivated agricultural, horticultural and domestic habitats
+J : Constructed, industrial and other artificial habitats
+X : Habitat complexes</t>
+  </si>
+  <si>
+    <t>Site habitat type (IUCN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only the main categories for the population habitat type are listed here. It is recommended to provide the appropriate sub-categories from the IUCN habitat type full list provided at http://intranet.iucn.org/webfiles/doc/SSC/RedList/AuthorityF/habitats.rtf. Multiple values are allowed. If more than one category is applicable to a particular area, binary scale (Yes/No) can be assigned to each descriptor state. IUCN numbering is used.
+1 Forest
+2 Savanna
+3 Shrubland
+4 Grassland
+5 Wetlands (inland)
+6 Rocky areas [e.g. inland cliffs, mountain peaks]
+7 Caves and Subterranean Habitats (non-aquatic)
+8 Desert
+9 Sea
+10 Coastline
+11 Artificial – Terrestrial
+12 Artificial – Aquatic
+13 Introduced Vegetation
+14 Other (specify in the "Remarks" field)
+15 Unknown
+</t>
+  </si>
+  <si>
+    <t>Site habitat scoring (IUCN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide the appropriate score for the selected IUCN habitat type.
+1 Suitable  (main or preferred habitat/s, habitat/s containing major subpopulations, habitat/s with high population densities)
+2  Moderately suitable  (secondary habitat/s, habitat/s containing minor subpopulations, habitat/s with low population densities)
+3 Unsuitable   (unsuitability expressly known or easily inferred from the ecology of the taxon)
+9 Undefined   (data deficient, possibly suitable or moderately suitable as inferred from ecology of the taxon) </t>
+  </si>
+  <si>
+    <t>Site national habitat unit code</t>
+  </si>
+  <si>
+    <t>National unit code.</t>
+  </si>
+  <si>
+    <t>E2.1</t>
+  </si>
+  <si>
+    <t>Site national habitat unit description</t>
+  </si>
+  <si>
+    <t>Description of unit.</t>
+  </si>
+  <si>
+    <t>Permanent mesotrophic pastures and aftermath-grazed meadows</t>
+  </si>
+  <si>
+    <t>Site national habitat authority file</t>
+  </si>
+  <si>
+    <t>Authority file to which the habitat refers.</t>
+  </si>
+  <si>
+    <t>EUNIS habitat types</t>
+  </si>
+  <si>
+    <t>Version of authority file used.</t>
+  </si>
+  <si>
+    <t>Site protection</t>
+  </si>
+  <si>
+    <t>0. Not protected, no conservation measures
+1. Protected area
+99. Other conserved area, not protected by legislation</t>
+  </si>
+  <si>
+    <t>SITE_PROTECTED</t>
+  </si>
+  <si>
+    <t>Site code for protected area</t>
+  </si>
+  <si>
+    <t>Provide the WDPA unique site code. Site code is available from the World database of protected areas (WDPA) (http://www.wdpa.org/ ).</t>
+  </si>
+  <si>
+    <t>Site legislation</t>
+  </si>
+  <si>
+    <t>Indicate the level of site protection:
+1. International
+2. National</t>
+  </si>
+  <si>
+    <t>Site ownership</t>
+  </si>
+  <si>
+    <t>1 Private
+2 Public
+3 Government
+99. Other</t>
+  </si>
+  <si>
+    <t>Description of the geomorphology of the immediate surroundings of the collecting site (adapted from FAO, 1990). 
+1 Plain level 16 Longitudinal dune
+2 Escarpment 17 Interdunal depression
+3 Interfluve  18 Mangrove
+4 Valley  19 Upper slope
+5 Valley floor 20 Midslope
+6 Channel  21 Lower slope
+7 Levee  22 Ridge
+8 Terrace 23 Beach
+9 Floodplain 24 Beachridge
+10 Lagoon 25 Rounded summit
+11 Pan 26 Summit
+12 Caldera 27 Coral atoll
+13 Open depression 28 Drainage line (bottom position in flat or almost-flat terrain)
+14 Closed depression 29 Coral reef 
+15 Dune 99 Other (specify in appropriate section’s Remarks)</t>
+  </si>
+  <si>
+    <t>Site land element and position</t>
+  </si>
+  <si>
+    <t>Site slope aspect</t>
+  </si>
+  <si>
+    <t>Site slope</t>
+  </si>
+  <si>
+    <t>Estimated slope of the site in degrees.</t>
+  </si>
+  <si>
+    <t>The direction that the slope faces. Describe the direction with symbols N, S, E, W (e.g. a slope that faces a south-western direction has an aspect of SW).</t>
+  </si>
+  <si>
+    <t>Site soil texture class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For convenience in determining the texture classes of the following list, particle size classes are given for each of the fine earth fraction listed below. (Adapted from FAO 1990):
+1 Clay 12 Coarse sandy loam
+2 Loam 13 Loamy sand
+3 Clay loam 14 Loamy very fine sand
+4 Silt 15 Loamy fine sand
+5 Silty clay 16 Loamy coarse sand
+6 Silty clay loam 17 Very fine sand
+7 Silt loam 18 Fine sand
+8 Sandy clay 19 Medium sand
+9 Sandy clay loam 20 Coarse sand
+10 Sandy loam 21 Sand, unsorted
+11 Fine sandy loam 22 Sand, unspecified
+</t>
+  </si>
+  <si>
+    <t>Site soil moisture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture conditions prevailing in the soil should be given together with the depth. Attention should be paid to unusual moisture conditions caused by unseasonable weather, prolonged exposure of the profile, flooding, etc. (From FAO 1990):
+1 Dry
+5 Slightly moist
+7 Moist
+9 Wet
+</t>
+  </si>
+  <si>
+    <t>Site soil moisture measurement depth</t>
+  </si>
+  <si>
+    <t>Depth in centimetres at which soil moisture condition was recorded.</t>
+  </si>
+  <si>
+    <t>1 Acid (&lt;7)
+2 Neutral (7)
+3 Alkaline (&gt;7)</t>
+  </si>
+  <si>
+    <t>Site soil acidity</t>
+  </si>
+  <si>
+    <t>Site soil acidity value</t>
+  </si>
+  <si>
+    <t>Actual measurement of soil acidity at related depth.</t>
+  </si>
+  <si>
+    <t>Site soil acidity measurement depth</t>
+  </si>
+  <si>
+    <t>Depth in centimetres at which soil acidity condition was recorded.</t>
+  </si>
+  <si>
+    <t>3. Low
+5. Intermediate
+7. High</t>
+  </si>
+  <si>
+    <t>Site soil salinity</t>
+  </si>
+  <si>
+    <t>Site soil salinity measurement depth</t>
+  </si>
+  <si>
+    <t>Actual measurement of soil salinity at related depth.</t>
+  </si>
+  <si>
+    <t>Depth in centimetres at which soil salinity condition was recorded.</t>
+  </si>
+  <si>
+    <t>Site soil salinity value</t>
+  </si>
+  <si>
+    <t>TOTAL_INDIVIDUALS</t>
+  </si>
+  <si>
+    <t>TOTAL_MATURE</t>
+  </si>
+  <si>
+    <t>TOTAL_JUVENILE</t>
+  </si>
+  <si>
+    <t>SEEDLINGS</t>
+  </si>
+  <si>
+    <t>FOLIAGE_COVER_RANK</t>
+  </si>
+  <si>
+    <t>FOLIAGE_COVER_SCALE</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>LOCALITY</t>
+  </si>
+  <si>
+    <t>ADMIN_3</t>
+  </si>
+  <si>
+    <t>ADMIN_2</t>
+  </si>
+  <si>
+    <t>ADMIN_1</t>
+  </si>
+  <si>
+    <t>NEAR_PLACE</t>
+  </si>
+  <si>
+    <t>NEAR_DISTANCE</t>
+  </si>
+  <si>
+    <t>NEAR_DIRECTION</t>
+  </si>
+  <si>
+    <t>ELEVATION_MIN</t>
+  </si>
+  <si>
+    <t>ELEVATION_MAX</t>
+  </si>
+  <si>
+    <t>LAT_DEGREES</t>
+  </si>
+  <si>
+    <t>LAT_MINUTES</t>
+  </si>
+  <si>
+    <t>LAT_SECONDS</t>
+  </si>
+  <si>
+    <t>LAT_HEMISPHERE</t>
+  </si>
+  <si>
+    <t>LON_DEGREES</t>
+  </si>
+  <si>
+    <t>LON_MINUTES</t>
+  </si>
+  <si>
+    <t>LON_SECONDS</t>
+  </si>
+  <si>
+    <t>LON_HEMISPHERE</t>
+  </si>
+  <si>
+    <t>DATUM</t>
+  </si>
+  <si>
+    <t>GEOMETRY</t>
+  </si>
+  <si>
+    <t>GEOREFERENCING_METHOD</t>
+  </si>
+  <si>
+    <t>GEOREFERENCING_ERROR</t>
+  </si>
+  <si>
+    <t>LAND_USE_FAO</t>
+  </si>
+  <si>
+    <t>LAND_USE_CORINE</t>
+  </si>
+  <si>
+    <t>HABITAT_TYPE_EUNIS</t>
+  </si>
+  <si>
+    <t>HABITAT_TYPE_IUCN</t>
+  </si>
+  <si>
+    <t>HABITAT_SCORE_IUCN</t>
+  </si>
+  <si>
+    <t>NATIONAL_HABITAT_CODE</t>
+  </si>
+  <si>
+    <t>NATIONAL_HABITAT_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>NATIONAL_HABITAT_FILE</t>
+  </si>
+  <si>
+    <t>NATIONAL_HABITAT_FILE_VERSION</t>
+  </si>
+  <si>
+    <t>WDPA_CODE</t>
+  </si>
+  <si>
+    <t>LEGISLATION_TYPE</t>
+  </si>
+  <si>
+    <t>OWNERSHIP</t>
+  </si>
+  <si>
+    <t>LAND_ELEMENT</t>
+  </si>
+  <si>
+    <t>LAND_SLOPE</t>
+  </si>
+  <si>
+    <t>SLOPE_ASPECT</t>
+  </si>
+  <si>
+    <t>SOIL_TEXTURE</t>
+  </si>
+  <si>
+    <t>SOIL_MOISTURE</t>
+  </si>
+  <si>
+    <t>SOIL_MOISTURE_DEPTH</t>
+  </si>
+  <si>
+    <t>SOIL_PH</t>
+  </si>
+  <si>
+    <t>SOIL_PH_VALUE</t>
+  </si>
+  <si>
+    <t>SOIL_PH_DEPTH</t>
+  </si>
+  <si>
+    <t>SOIL_SALINITY</t>
+  </si>
+  <si>
+    <t>SOIL_SALINITY_VALUE</t>
+  </si>
+  <si>
+    <t>SOIL_SALINITY_DEPTH</t>
+  </si>
+  <si>
+    <t>IN_PRIORITY_CRITERIA</t>
+  </si>
+  <si>
+    <t>IN_PRIORITY_CRITERIA_METHOD</t>
+  </si>
+  <si>
+    <t>Conservation actions scheme</t>
+  </si>
+  <si>
+    <t>CONSERVATION_ACTIONS</t>
+  </si>
+  <si>
+    <t>CONSERVATION_ACTIONS_SCHEME</t>
+  </si>
+  <si>
+    <t>CONSERVATION_ACTIONS_REGION</t>
+  </si>
+  <si>
+    <t>CONSERVATION_LEGISLATION</t>
+  </si>
+  <si>
+    <t>Indication on whether conservation actions related to the taxon are in place.
+0 No
+1 Yes</t>
+  </si>
+  <si>
+    <t>Type of conservation priorities and actions of the taxon in place in a country. Use the IUCN categories according to the conservation action authority file (version XXX) on http://intranet.iucn.org/webfiles/doc/SSC/RedList/AuthorityF/consactions.rtf
+Separate multiple items with a semicolon (;).
+Only the main categories are listed below.
+0. No conservation actions
+1. Policy-based actions
+2. Communication and Education
+3. Research actions
+4. Habitat and site-based actions
+5. Species-based actions</t>
+  </si>
+  <si>
+    <t>Type of legislation in which the taxon is included, if any.
+Separate multiple items with a semicolon (;).
+1. Trade
+2. Protection
+3. Agriculture</t>
+  </si>
+  <si>
+    <t>1
+2.1
+1;3</t>
+  </si>
+  <si>
+    <t>1
+3
+1;3</t>
+  </si>
+  <si>
+    <t>Administrative unit of assessment</t>
+  </si>
+  <si>
+    <t>Provide the geographical administrative unit related to the assessment this may be a country or a country subdivision. For country codes use the three-letter ISO 3166-1 Alpha-3 code; for region codes use the ISO 3166-2 codes (see: http://en.wikipedia.org/wiki/ISO_3166-1).</t>
+  </si>
+  <si>
+    <t>ASSESSMENT_ADMIN</t>
+  </si>
+  <si>
+    <t>ESP for Spain
+GBR for United Kingdom</t>
+  </si>
+  <si>
+    <t>ES-AN for the autonomous community of Andalucía
+GB-SCT for Scotland
+GB-WLS for Wales</t>
+  </si>
+  <si>
+    <t>Safety duplicate accession number</t>
+  </si>
+  <si>
+    <t>To be compiled if POPULATION_MONITORED is ‘Yes’. Indicate who is in charge of monitoring. Free text.</t>
+  </si>
+  <si>
+    <t>Site country</t>
+  </si>
+  <si>
+    <t>SITE_COUNTRY</t>
+  </si>
+  <si>
+    <r>
+      <t>Provide the ISO code of the site country, use the three-letter ISO code (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard ISO 3166-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whether any monitoring of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>in situ CW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>R is foreseen across years.
+0. Site not monitored
+1. Site monitored</t>
+    </r>
+  </si>
+  <si>
+    <t>Site geometry</t>
+  </si>
+  <si>
+    <t>Point=7.456,46.302
+Polygon=12.8199,42.8422;12.8207,42.8158;12.8699,42.8166;12.8678,42.8398</t>
+  </si>
+  <si>
+    <t>Site national habitat authority file version</t>
+  </si>
+  <si>
+    <t>Unique progressive number which identifies the population in the Inventory, this field is used to link the safety duplicate to a specific population: the value must correspond to a POPULATION_NUMBER field in the IN_Population worksheet.</t>
+  </si>
+  <si>
+    <t>Examples:
+10. Crop agriculture
+20. Mixed farming
+50. Nature protection</t>
+  </si>
+  <si>
+    <t>Examples:
+2. Agricultural areas
+221. Vineyards
+313. Mixed forest</t>
+  </si>
+  <si>
+    <t>Below only the major threat types are listed. It is recommended to select appropriate sub-classes from the full list available from http://www.iucnredlist.org/technical-documents/classification-schemes/threats-classification-scheme, version 3.2 (date accessed: 26 June 2013). IUCN numbering is followed here except type = other options. Multiple values are allowed, separated with a semicolon without space. 
+1. Residential &amp; commercial development 
+2. Agriculture &amp; aquaculture 
+3. Energy production &amp; mining 
+4. Transportation &amp; service corridors 
+5. Biological resource use 
+6 Human intrusion &amp; disturbance 
+7. Natural systems modifications 
+8 Invasive &amp; other problematic species, genes &amp; diseases 
+9. Pollution 
+10. Geological events 
+11. Climate change &amp; severe weather
+12. Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,8 +2690,36 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,8 +2744,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1276,8 +2898,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="1246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1383,8 +3031,1149 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1429,9 +4218,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1544,14 +4330,50 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="1246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1604,6 +4426,577 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1245" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1656,6 +5049,576 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1244" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1956,9 +5919,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AS8"/>
+  <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -1966,573 +5929,2339 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="30" width="39.5" style="5" customWidth="1"/>
-    <col min="31" max="45" width="39.5" customWidth="1"/>
-    <col min="46" max="16384" width="8.83203125" style="6"/>
+    <col min="2" max="31" width="39.5" style="5" customWidth="1"/>
+    <col min="32" max="53" width="39.5" customWidth="1"/>
+    <col min="54" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="9" customFormat="1" ht="18">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:53" s="9" customFormat="1" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="24"/>
+    </row>
+    <row r="2" spans="1:53" s="11" customFormat="1" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
+    </row>
+    <row r="3" spans="1:53" s="11" customFormat="1" ht="15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="50"/>
+    </row>
+    <row r="4" spans="1:53" s="12" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="25"/>
+      <c r="C4" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM4" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO4" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP4" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ4" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR4" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS4" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT4" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU4" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV4" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA4" s="45" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="11" customFormat="1" ht="15">
-      <c r="A2" s="26" t="s">
+    <row r="5" spans="1:53" s="7" customFormat="1" ht="180" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="51"/>
+      <c r="C5" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR5" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU5" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV5" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA5" s="29" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" s="11" customFormat="1" ht="15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="51"/>
+    <row r="6" spans="1:53" s="8" customFormat="1" ht="70">
+      <c r="A6" s="30"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ6" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS6" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV6" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="31"/>
     </row>
-    <row r="4" spans="1:45" s="12" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA4" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC4" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD4" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE4" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH4" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI4" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK4" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL4" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM4" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN4" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO4" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP4" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ4" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR4" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS4" s="46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="7" customFormat="1" ht="154">
-      <c r="A5" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="58" t="s">
+    <row r="7" spans="1:53" s="8" customFormat="1">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN5" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP5" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS5" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" s="8" customFormat="1" ht="70">
-      <c r="A6" s="31"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="14">
-        <v>2</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD6" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="32"/>
-    </row>
-    <row r="7" spans="1:45" s="8" customFormat="1">
-      <c r="A7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="T7" s="16"/>
       <c r="U7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="33"/>
+    </row>
+    <row r="8" spans="1:53" s="8" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD8" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK8" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM8" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN8" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO8" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP8" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ8" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR8" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS8" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AT8" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU8" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV8" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX8" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ8" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
+    <col min="3" max="6" width="39.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="70">
+      <c r="A5" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="30"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="A8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="5" width="39.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="210">
+      <c r="A5" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="70">
+      <c r="A6" s="30"/>
+      <c r="B6" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="23" width="39.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" s="46" customFormat="1">
+      <c r="A4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="4" customFormat="1" ht="224">
+      <c r="A5" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="V5" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="4" customFormat="1" ht="42">
+      <c r="A6" s="30"/>
+      <c r="B6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="V6" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="W6" s="48"/>
+    </row>
+    <row r="7" spans="1:23" s="4" customFormat="1">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="65"/>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="V8" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="W8" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <headerFooter>
+    <oddFooter>&amp;A</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BR8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="70" width="39.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:70" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="24"/>
+    </row>
+    <row r="2" spans="1:70" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="26"/>
+    </row>
+    <row r="3" spans="1:70" ht="15">
+      <c r="A3" s="25"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="26"/>
+    </row>
+    <row r="4" spans="1:70">
+      <c r="A4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="W4" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="X4" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z4" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA4" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB4" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC4" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD4" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE4" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF4" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG4" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH4" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI4" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ4" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK4" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL4" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM4" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN4" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="AO4" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP4" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="AQ4" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="AR4" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS4" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT4" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU4" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="AV4" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="AW4" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="AX4" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="AY4" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ4" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA4" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB4" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="BC4" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="BD4" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="BE4" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF4" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="BG4" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="BH4" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="BI4" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="BJ4" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="BK4" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="BL4" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="BM4" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="BN4" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="BO4" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="BP4" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="BQ4" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="BR4" s="38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" ht="378">
+      <c r="A5" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC5" s="69" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD5" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE5" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF5" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG5" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH5" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI5" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ5" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK5" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL5" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="AM5" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN5" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="AO5" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="AP5" s="68" t="s">
+        <v>400</v>
+      </c>
+      <c r="AQ5" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="AR5" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS5" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="AT5" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU5" s="62" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV5" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="AW5" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="AX5" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="AY5" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="AZ5" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="BA5" s="62" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB5" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="BC5" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="BD5" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="BE5" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="BF5" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="BG5" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="BH5" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="BI5" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="BJ5" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="BK5" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="BL5" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="BM5" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="BN5" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="BO5" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="BP5" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ5" s="62" t="s">
+        <v>457</v>
+      </c>
+      <c r="BR5" s="39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" ht="56">
+      <c r="A6" s="30"/>
+      <c r="B6" s="72">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>59</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>137</v>
+      </c>
+      <c r="AM6" s="14">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="14">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="AS6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="AU6" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="AZ6" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="BA6" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB6" s="75">
+        <v>41061</v>
+      </c>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="75"/>
+      <c r="BG6" s="75"/>
+      <c r="BH6" s="75"/>
+      <c r="BI6" s="75"/>
+      <c r="BJ6" s="75"/>
+      <c r="BK6" s="75"/>
+      <c r="BL6" s="75"/>
+      <c r="BM6" s="75"/>
+      <c r="BN6" s="75"/>
+      <c r="BO6" s="75"/>
+      <c r="BP6" s="75"/>
+      <c r="BQ6" s="75"/>
+      <c r="BR6" s="40"/>
+    </row>
+    <row r="7" spans="1:70">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
@@ -2552,143 +8281,243 @@
       <c r="AP7" s="16"/>
       <c r="AQ7" s="16"/>
       <c r="AR7" s="16"/>
-      <c r="AS7" s="34"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="33"/>
     </row>
-    <row r="8" spans="1:45" s="8" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>141</v>
+    <row r="8" spans="1:70" ht="15" thickBot="1">
+      <c r="A8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>147</v>
+        <v>461</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>23</v>
+        <v>463</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>31</v>
+        <v>464</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="W8" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA8" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF8" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG8" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH8" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI8" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK8" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL8" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM8" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN8" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO8" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP8" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="AQ8" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR8" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS8" s="38" t="s">
-        <v>96</v>
+        <v>465</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="X8" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z8" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA8" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC8" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD8" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE8" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF8" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="AG8" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH8" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI8" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="AJ8" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="AK8" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL8" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="AM8" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="AN8" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="AO8" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="AP8" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="AQ8" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="AR8" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="AS8" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="AT8" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU8" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="AV8" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="AW8" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="AX8" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="AY8" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="AZ8" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="BA8" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="BB8" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="BC8" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="BD8" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="BE8" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="BF8" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="BG8" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="BH8" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="BI8" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="BJ8" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="BK8" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="BL8" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="BM8" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="BN8" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="BO8" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="BP8" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="BQ8" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="BR8" s="41" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -2702,10 +8531,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -2715,114 +8543,133 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="2" customWidth="1"/>
-    <col min="3" max="6" width="39.5" style="5" customWidth="1"/>
+    <col min="2" max="7" width="39.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="26" t="s">
-        <v>165</v>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="25" t="s">
+        <v>340</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="27"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="25"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="27"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="26"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>161</v>
+    <row r="4" spans="1:7">
+      <c r="A4" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="70">
-      <c r="A5" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>163</v>
+    <row r="5" spans="1:7" ht="126">
+      <c r="A5" s="71" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="31"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+    <row r="6" spans="1:7" ht="42">
+      <c r="A6" s="72"/>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>332</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="41"/>
+      <c r="F6" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="33" t="s">
-        <v>21</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>162</v>
+    <row r="8" spans="1:7" ht="15" thickBot="1">
+      <c r="A8" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2834,352 +8681,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:T8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="20" width="39.5" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="18">
-      <c r="A1" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="15">
-      <c r="A2" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="27"/>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="1:20" s="47" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q4" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="T4" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="224">
-      <c r="A5" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="4" customFormat="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="T6" s="49"/>
-    </row>
-    <row r="7" spans="1:20" s="4" customFormat="1">
-      <c r="A7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="34"/>
-    </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="R8" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="S8" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="T8" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
-  <headerFooter>
-    <oddFooter>&amp;A</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Library/Templates/CWR_Inventory_Template.xlsx
+++ b/Library/Templates/CWR_Inventory_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="22300" windowHeight="16360" tabRatio="724"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="31760" windowHeight="21900" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="IN_Identification" sheetId="10" r:id="rId1"/>
@@ -5922,8 +5922,8 @@
   <dimension ref="A1:BA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:BR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
